--- a/FreerDat1.xlsx
+++ b/FreerDat1.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spark\Documents\SI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spark\OneDrive\Documents\GitHub\MuseumMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="9465" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="svg" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>RoomNum</t>
   </si>
@@ -253,6 +253,33 @@
   </si>
   <si>
     <t>r6c1-312</t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;rect x="</t>
+  </si>
+  <si>
+    <t>" y="</t>
+  </si>
+  <si>
+    <t>" width="</t>
+  </si>
+  <si>
+    <t>" height="</t>
+  </si>
+  <si>
+    <t>" style="fill:blue;stroke:pink;stroke-width:5;fill-opacity:0.1;stroke-opacity:0.9"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -268,12 +295,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -288,10 +321,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,10 +641,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -618,7 +652,7 @@
     <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,8 +671,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>300</v>
       </c>
@@ -657,8 +703,20 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="1">
+        <v>470</v>
+      </c>
+      <c r="H2" s="1">
+        <v>884</v>
+      </c>
+      <c r="I2">
+        <v>512</v>
+      </c>
+      <c r="J2">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>301</v>
       </c>
@@ -674,8 +732,20 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="1">
+        <v>208</v>
+      </c>
+      <c r="H3" s="1">
+        <v>358</v>
+      </c>
+      <c r="I3">
+        <v>952</v>
+      </c>
+      <c r="J3">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>302</v>
       </c>
@@ -694,8 +764,20 @@
       <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="1">
+        <v>208</v>
+      </c>
+      <c r="H4" s="1">
+        <v>358</v>
+      </c>
+      <c r="I4">
+        <v>1208</v>
+      </c>
+      <c r="J4">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>303</v>
       </c>
@@ -714,8 +796,20 @@
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="1">
+        <v>470</v>
+      </c>
+      <c r="H5">
+        <v>726</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1325</v>
+      </c>
+      <c r="J5">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>304</v>
       </c>
@@ -734,8 +828,20 @@
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6">
+        <v>737</v>
+      </c>
+      <c r="H6" s="1">
+        <v>884</v>
+      </c>
+      <c r="I6">
+        <v>1325</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>305</v>
       </c>
@@ -754,8 +860,20 @@
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="1">
+        <v>470</v>
+      </c>
+      <c r="H7" s="1">
+        <v>884</v>
+      </c>
+      <c r="I7">
+        <v>1075</v>
+      </c>
+      <c r="J7">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>306</v>
       </c>
@@ -771,8 +889,20 @@
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="1">
+        <v>749</v>
+      </c>
+      <c r="H8" s="1">
+        <v>982</v>
+      </c>
+      <c r="I8">
+        <v>1396</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>307</v>
       </c>
@@ -791,8 +921,20 @@
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="1">
+        <v>993</v>
+      </c>
+      <c r="H9">
+        <v>1294</v>
+      </c>
+      <c r="I9">
+        <v>1217</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>308</v>
       </c>
@@ -811,8 +953,20 @@
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" s="1">
+        <v>993</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1294</v>
+      </c>
+      <c r="I10">
+        <v>954</v>
+      </c>
+      <c r="J10">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>309</v>
       </c>
@@ -831,8 +985,20 @@
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="1">
+        <v>993</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1294</v>
+      </c>
+      <c r="I11">
+        <v>478</v>
+      </c>
+      <c r="J11">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>310</v>
       </c>
@@ -851,8 +1017,20 @@
       <c r="F12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" s="1">
+        <v>993</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1294</v>
+      </c>
+      <c r="I12">
+        <v>327</v>
+      </c>
+      <c r="J12">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>311</v>
       </c>
@@ -871,8 +1049,20 @@
       <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13">
+        <v>993</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1294</v>
+      </c>
+      <c r="I13" s="1">
+        <v>118</v>
+      </c>
+      <c r="J13">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>312</v>
       </c>
@@ -891,8 +1081,20 @@
       <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14">
+        <v>749</v>
+      </c>
+      <c r="H14">
+        <v>982</v>
+      </c>
+      <c r="I14" s="1">
+        <v>118</v>
+      </c>
+      <c r="J14" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>313</v>
       </c>
@@ -911,8 +1113,20 @@
       <c r="F15" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15">
+        <v>738</v>
+      </c>
+      <c r="H15">
+        <v>884</v>
+      </c>
+      <c r="I15" s="1">
+        <v>118</v>
+      </c>
+      <c r="J15" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>314</v>
       </c>
@@ -931,8 +1145,20 @@
       <c r="F16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16" s="1">
+        <v>470</v>
+      </c>
+      <c r="H16" s="1">
+        <v>884</v>
+      </c>
+      <c r="I16">
+        <v>340</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>315</v>
       </c>
@@ -951,8 +1177,20 @@
       <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17">
+        <v>470</v>
+      </c>
+      <c r="H17">
+        <v>727</v>
+      </c>
+      <c r="I17" s="1">
+        <v>118</v>
+      </c>
+      <c r="J17">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>316</v>
       </c>
@@ -971,8 +1209,20 @@
       <c r="F18" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18">
+        <v>257</v>
+      </c>
+      <c r="H18">
+        <v>459</v>
+      </c>
+      <c r="I18">
+        <v>118</v>
+      </c>
+      <c r="J18">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>317</v>
       </c>
@@ -991,8 +1241,20 @@
       <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19">
+        <v>208</v>
+      </c>
+      <c r="H19">
+        <v>358</v>
+      </c>
+      <c r="I19">
+        <v>253</v>
+      </c>
+      <c r="J19">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>318</v>
       </c>
@@ -1008,8 +1270,20 @@
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20" s="1">
+        <v>993</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I20">
+        <v>688</v>
+      </c>
+      <c r="J20">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>201</v>
       </c>
@@ -1025,8 +1299,12 @@
       <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>202</v>
       </c>
@@ -1045,8 +1323,12 @@
       <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>203</v>
       </c>
@@ -1065,6 +1347,10 @@
       <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1074,16 +1360,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="5" max="5" width="14.53125" customWidth="1"/>
+    <col min="9" max="9" width="27.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1575,7 +1862,7 @@
         <v>cont-316</v>
       </c>
       <c r="B33" t="str">
-        <f>VLOOKUP(RIGHT(A33,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A33,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>The Peacock Room</v>
       </c>
       <c r="F33" t="str">
@@ -1589,7 +1876,7 @@
         <v>cont-317</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A34,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A34,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Freer &amp; Whistler: Points of Contact</v>
       </c>
       <c r="F34" s="1" t="str">
@@ -1604,7 +1891,7 @@
         <v>cont-201</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A35,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A35,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Special Exhibition Gallery</v>
       </c>
       <c r="F35" s="1" t="str">
@@ -1618,7 +1905,7 @@
         <v>cont-302</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A36,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A36,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Religious Arts of Japan</v>
       </c>
       <c r="F36" s="1" t="str">
@@ -1632,7 +1919,7 @@
         <v>cont-316</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A37,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A37,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>The Peacock Room</v>
       </c>
       <c r="F37" s="1" t="str">
@@ -1646,7 +1933,7 @@
         <v>cont-315</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A38,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A38,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Korean Art</v>
       </c>
       <c r="F38" s="1" t="str">
@@ -1660,7 +1947,7 @@
         <v>cont-314</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A39,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A39,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Chinese Paintings</v>
       </c>
       <c r="F39" s="1" t="str">
@@ -1674,7 +1961,7 @@
         <v>cont-304</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A40,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A40,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Arts of Japan 2</v>
       </c>
       <c r="F40" s="1" t="str">
@@ -1688,7 +1975,7 @@
         <v>cont-305</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A41,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A41,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Japanese Art</v>
       </c>
       <c r="F41" s="1" t="str">
@@ -1702,7 +1989,7 @@
         <v>cont-313</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A42,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A42,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Chinese Art</v>
       </c>
       <c r="F42" s="1" t="str">
@@ -1716,7 +2003,7 @@
         <v>cont-303</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A43,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A43,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Arts of Japan 1</v>
       </c>
       <c r="F43" s="1" t="str">
@@ -1730,7 +2017,7 @@
         <v>cont-312</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A44,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A44,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Silk Road Luxuries</v>
       </c>
       <c r="F44" s="1" t="str">
@@ -1744,7 +2031,7 @@
         <v>cont-311</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A45,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A45,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Ancient Chinese Buddhist Sculpture</v>
       </c>
       <c r="F45" s="1" t="str">
@@ -1758,7 +2045,7 @@
         <v>cont-310</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A46,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A46,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Ancient Chinese Bronzes</v>
       </c>
       <c r="F46" s="1" t="str">
@@ -1772,7 +2059,7 @@
         <v>cont-309</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A47,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A47,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Ancient Chinese Jades</v>
       </c>
       <c r="F47" s="1" t="str">
@@ -1786,7 +2073,7 @@
         <v>cont-308</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A48,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A48,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>South Asian and Himilayan Art</v>
       </c>
       <c r="F48" s="1" t="str">
@@ -1794,13 +2081,13 @@
         <v>&lt;div class="tooltip_templates"&gt;&lt;span id="cont-308"&gt;&lt;strong&gt;South Asian and Himilayan Art&lt;/strong&gt;&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="str">
         <f>A27</f>
         <v>cont-307</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f>VLOOKUP(RIGHT(A49,3)+0,Sheet1!$A$2:$B$23,2,FALSE)</f>
+        <f>VLOOKUP(RIGHT(A49,3)+0,Data!$A$2:$B$23,2,FALSE)</f>
         <v>Arts of the Islamic World</v>
       </c>
       <c r="F49" s="1" t="str">
@@ -1808,50 +2095,199 @@
         <v>&lt;div class="tooltip_templates"&gt;&lt;span id="cont-307"&gt;&lt;strong&gt;Arts of the Islamic World&lt;/strong&gt;&lt;/span&gt;&lt;/div&gt;</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <f>FLOOR(A61/2,1)-125</f>
+        <v>244</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" ref="B56:B59" si="5">FLOOR(B61/2,1)-125</f>
+        <v>317</v>
+      </c>
+      <c r="C56" s="1">
+        <f>FLOOR(C61/2,1)-50</f>
+        <v>9</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" ref="D56:D59" si="6">FLOOR(D61/2,1)-50</f>
+        <v>75</v>
+      </c>
+      <c r="E56" t="str">
+        <f>E$55&amp;C56&amp;F$55&amp;A56&amp;G$55&amp;D56-C56&amp;H$55&amp;B56-A56&amp;I$55</f>
+        <v xml:space="preserve">  &lt;rect x="9" y="244" width="66" height="73" style="fill:blue;stroke:pink;stroke-width:5;fill-opacity:0.1;stroke-opacity:0.9"/&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <f t="shared" ref="A57" si="7">FLOOR(A62/2,1)-125</f>
+        <v>110</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="5"/>
+        <v>317</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" ref="C57" si="8">FLOOR(C62/2,1)-50</f>
+        <v>120</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f t="shared" ref="E57:E59" si="9">E$55&amp;C57&amp;F$55&amp;A57&amp;G$55&amp;D57-C57&amp;H$55&amp;B57-A57&amp;I$55</f>
+        <v xml:space="preserve">  &lt;rect x="120" y="110" width="80" height="207" style="fill:blue;stroke:pink;stroke-width:5;fill-opacity:0.1;stroke-opacity:0.9"/&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <f t="shared" ref="A58" si="10">FLOOR(A63/2,1)-125</f>
+        <v>110</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="5"/>
+        <v>238</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58" si="11">FLOOR(C63/2,1)-50</f>
+        <v>9</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;rect x="9" y="110" width="66" height="128" style="fill:blue;stroke:pink;stroke-width:5;fill-opacity:0.1;stroke-opacity:0.9"/&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <f t="shared" ref="A59" si="12">FLOOR(A64/2,1)-125</f>
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" ref="C59" si="13">FLOOR(C64/2,1)-50</f>
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">  &lt;rect x="9" y="3" width="53" height="101" style="fill:blue;stroke:pink;stroke-width:5;fill-opacity:0.1;stroke-opacity:0.9"/&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>738</v>
+      </c>
+      <c r="B61" s="1">
+        <v>884</v>
+      </c>
+      <c r="C61" s="1">
+        <v>118</v>
+      </c>
+      <c r="D61" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>470</v>
+      </c>
+      <c r="B62" s="1">
+        <v>884</v>
+      </c>
+      <c r="C62" s="1">
+        <v>340</v>
+      </c>
+      <c r="D62" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>470</v>
+      </c>
+      <c r="B63" s="1">
+        <v>727</v>
+      </c>
+      <c r="C63" s="1">
+        <v>118</v>
+      </c>
+      <c r="D63" s="1">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>257</v>
+      </c>
+      <c r="B64" s="1">
+        <v>459</v>
+      </c>
+      <c r="C64" s="1">
+        <v>118</v>
+      </c>
+      <c r="D64" s="1">
+        <v>225</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
